--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,51 +534,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2454823333333333</v>
+        <v>0.2304126666666667</v>
       </c>
       <c r="H2">
-        <v>0.736447</v>
+        <v>0.691238</v>
       </c>
       <c r="I2">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="J2">
-        <v>0.0314842275540206</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05475333333333333</v>
+        <v>0.003092666666666667</v>
       </c>
       <c r="N2">
-        <v>0.16426</v>
+        <v>0.009278</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03934390080485799</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03934390080485798</v>
       </c>
       <c r="Q2">
-        <v>0.01344097602444444</v>
+        <v>0.0007125895737777778</v>
       </c>
       <c r="R2">
-        <v>0.12096878422</v>
+        <v>0.006413306164</v>
       </c>
       <c r="S2">
-        <v>0.0314842275540206</v>
+        <v>0.001284766820652643</v>
       </c>
       <c r="T2">
-        <v>0.0314842275540206</v>
+        <v>0.001284766820652642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.016075000000001</v>
+        <v>0.2304126666666667</v>
       </c>
       <c r="H3">
-        <v>18.048225</v>
+        <v>0.691238</v>
       </c>
       <c r="I3">
-        <v>0.7715890252063808</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="J3">
-        <v>0.7715890252063808</v>
+        <v>0.03265479005310033</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +614,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.05475333333333333</v>
+        <v>0.07551333333333334</v>
       </c>
       <c r="N3">
-        <v>0.16426</v>
+        <v>0.22654</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9606560991951421</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9606560991951419</v>
       </c>
       <c r="Q3">
-        <v>0.3294001598333333</v>
+        <v>0.01739922850222222</v>
       </c>
       <c r="R3">
-        <v>2.9646014385</v>
+        <v>0.15659305652</v>
       </c>
       <c r="S3">
-        <v>0.7715890252063808</v>
+        <v>0.03137002323244768</v>
       </c>
       <c r="T3">
-        <v>0.7715890252063808</v>
+        <v>0.03137002323244768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,232 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.535436666666667</v>
+        <v>6.016075000000001</v>
       </c>
       <c r="H4">
-        <v>4.606310000000001</v>
+        <v>18.048225</v>
       </c>
       <c r="I4">
-        <v>0.1969267472395986</v>
+        <v>0.8526166070240881</v>
       </c>
       <c r="J4">
-        <v>0.1969267472395986</v>
+        <v>0.8526166070240883</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.003092666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.009278</v>
+      </c>
+      <c r="O4">
+        <v>0.03934390080485799</v>
+      </c>
+      <c r="P4">
+        <v>0.03934390080485798</v>
+      </c>
+      <c r="Q4">
+        <v>0.01860571461666667</v>
+      </c>
+      <c r="R4">
+        <v>0.16745143155</v>
+      </c>
+      <c r="S4">
+        <v>0.03354526321133031</v>
+      </c>
+      <c r="T4">
+        <v>0.03354526321133031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.016075000000001</v>
+      </c>
+      <c r="H5">
+        <v>18.048225</v>
+      </c>
+      <c r="I5">
+        <v>0.8526166070240881</v>
+      </c>
+      <c r="J5">
+        <v>0.8526166070240883</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M4">
-        <v>0.05475333333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.16426</v>
-      </c>
-      <c r="O4">
+      <c r="M5">
+        <v>0.07551333333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.22654</v>
+      </c>
+      <c r="O5">
+        <v>0.9606560991951421</v>
+      </c>
+      <c r="P5">
+        <v>0.9606560991951419</v>
+      </c>
+      <c r="Q5">
+        <v>0.4542938768333334</v>
+      </c>
+      <c r="R5">
+        <v>4.0886448915</v>
+      </c>
+      <c r="S5">
+        <v>0.8190713438127579</v>
+      </c>
+      <c r="T5">
+        <v>0.8190713438127579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G6">
+        <v>0.8095266666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.42858</v>
+      </c>
+      <c r="I6">
+        <v>0.1147286029228115</v>
+      </c>
+      <c r="J6">
+        <v>0.1147286029228115</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0.08407027562222222</v>
-      </c>
-      <c r="R4">
-        <v>0.7566324806</v>
-      </c>
-      <c r="S4">
-        <v>0.1969267472395986</v>
-      </c>
-      <c r="T4">
-        <v>0.1969267472395986</v>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.003092666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.009278</v>
+      </c>
+      <c r="O6">
+        <v>0.03934390080485799</v>
+      </c>
+      <c r="P6">
+        <v>0.03934390080485798</v>
+      </c>
+      <c r="Q6">
+        <v>0.002503596137777778</v>
+      </c>
+      <c r="R6">
+        <v>0.02253236524</v>
+      </c>
+      <c r="S6">
+        <v>0.004513870772875036</v>
+      </c>
+      <c r="T6">
+        <v>0.004513870772875035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8095266666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.42858</v>
+      </c>
+      <c r="I7">
+        <v>0.1147286029228115</v>
+      </c>
+      <c r="J7">
+        <v>0.1147286029228115</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.07551333333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.22654</v>
+      </c>
+      <c r="O7">
+        <v>0.9606560991951421</v>
+      </c>
+      <c r="P7">
+        <v>0.9606560991951419</v>
+      </c>
+      <c r="Q7">
+        <v>0.06113005702222223</v>
+      </c>
+      <c r="R7">
+        <v>0.5501705132</v>
+      </c>
+      <c r="S7">
+        <v>0.1102147321499365</v>
+      </c>
+      <c r="T7">
+        <v>0.1102147321499365</v>
       </c>
     </row>
   </sheetData>
